--- a/runs/LocationResultCompare.xlsx
+++ b/runs/LocationResultCompare.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>x_fusion</t>
   </si>
@@ -40,18 +40,49 @@
   <si>
     <t>error_NSL</t>
   </si>
+  <si>
+    <t>x_NoSelect_fusion</t>
+  </si>
+  <si>
+    <t>y_NoSelect_fusion</t>
+  </si>
+  <si>
+    <t>z_NoSelect_fusion</t>
+  </si>
+  <si>
+    <t>error_NoSelect_fusion</t>
+  </si>
+  <si>
+    <t>x_NoSelect_NSL</t>
+  </si>
+  <si>
+    <t>y_NoSelect_NSL</t>
+  </si>
+  <si>
+    <t>z_NoSelect_NSL</t>
+  </si>
+  <si>
+    <t>error_NoSelect_NSL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,18 +105,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,19 +127,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,9 +158,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,21 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +214,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,30 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +251,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,55 +365,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,103 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,16 +473,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,27 +520,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,172 +557,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1025,41 +1064,69 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="9" max="12" width="9" style="1"/>
+    <col min="13" max="16" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1084,8 +1151,32 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>0.381144520343636</v>
       </c>
@@ -1110,8 +1201,32 @@
       <c r="H3">
         <v>0.281634145228335</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1">
+        <v>0.381144520343636</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.726036400335424</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.281634145228335</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.381144520343636</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.726036400335424</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.281634145228335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0.762289040687272</v>
       </c>
@@ -1136,8 +1251,32 @@
       <c r="H4">
         <v>0.56326829045667</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1">
+        <v>0.762289040687272</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.45207280067085</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.56326829045667</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.762289040687272</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.45207280067085</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.56326829045667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1.12019304149776</v>
       </c>
@@ -1162,8 +1301,32 @@
       <c r="H5">
         <v>0.849602514245395</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1">
+        <v>1.12019304149776</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.1338386887907</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.849602514245395</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.12019304149776</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.1338386887907</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.849602514245395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1.41395146339108</v>
       </c>
@@ -1188,8 +1351,32 @@
       <c r="H6">
         <v>1.09520877026406</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1">
+        <v>1.41395146339108</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.84560128233348</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.09520877026406</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.41395146339108</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.84560128233348</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.09520877026406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1.64981127614164</v>
       </c>
@@ -1214,8 +1401,32 @@
       <c r="H7">
         <v>1.3025051157602</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1">
+        <v>1.64981127614164</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.58908641919182</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.3025051157602</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.64981127614164</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.58908641919182</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.3025051157602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1.88264724513898</v>
       </c>
@@ -1240,8 +1451,32 @@
       <c r="H8">
         <v>1.51273274067669</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1">
+        <v>1.88264724513898</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.32303969532121</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.51273274067669</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.88264724513898</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4.32303969532121</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.51273274067669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2.22841907418785</v>
       </c>
@@ -1266,8 +1501,32 @@
       <c r="H9">
         <v>1.61679961329002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1">
+        <v>2.22841907418785</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.60162314281067</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.61679961329002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.22841907418785</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3.60162314281067</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.61679961329002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2.99578377637521</v>
       </c>
@@ -1292,8 +1551,32 @@
       <c r="H10">
         <v>1.59346774011814</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1">
+        <v>2.99578377637521</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.53797242532136</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.59346774011814</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2.99578377637521</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3.53797242532136</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.59346774011814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>3.82294313068106</v>
       </c>
@@ -1318,8 +1601,32 @@
       <c r="H11">
         <v>1.59665000265238</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1">
+        <v>3.82294313068106</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.46936191166405</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.59665000265238</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.82294313068106</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3.46936191166405</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.59665000265238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>4.60027360822151</v>
       </c>
@@ -1344,8 +1651,32 @@
       <c r="H12">
         <v>1.59818112735379</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1">
+        <v>4.60027360822151</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.40488456148007</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.59818112735379</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4.60027360822151</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3.40488456148007</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1.59818112735379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>5.38756986111503</v>
       </c>
@@ -1370,8 +1701,32 @@
       <c r="H13">
         <v>1.61310107625028</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1">
+        <v>5.38756986111503</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.33958057860143</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.61310107625028</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5.38756986111503</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3.33958057860143</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.61310107625028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>6.17486611400856</v>
       </c>
@@ -1396,8 +1751,32 @@
       <c r="H14">
         <v>1.63879609604218</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1">
+        <v>6.17486611400856</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.27427659572278</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.63879609604218</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6.17486611400856</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3.27427659572278</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.63879609604218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>6.94223081619592</v>
       </c>
@@ -1422,8 +1801,32 @@
       <c r="H15">
         <v>1.67398336225906</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1">
+        <v>6.94223081619592</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.21062587823347</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.67398336225906</v>
+      </c>
+      <c r="M15" s="2">
+        <v>6.94223081619592</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3.21062587823347</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.67398336225906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>7.73949284444253</v>
       </c>
@@ -1448,8 +1851,32 @@
       <c r="H16">
         <v>1.72041787421082</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1">
+        <v>7.73949284444253</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.14449526266016</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.72041787421082</v>
+      </c>
+      <c r="M16" s="2">
+        <v>7.73949284444253</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3.14449526266016</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.72041787421082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>8.52930112138527</v>
       </c>
@@ -1474,8 +1901,32 @@
       <c r="H17">
         <v>1.9226603148849</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1">
+        <v>8.52930112138527</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.83032510864688</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.9226603148849</v>
+      </c>
+      <c r="M17" s="2">
+        <v>8.52930112138527</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.83032510864688</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.9226603148849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>8.65010959938947</v>
       </c>
@@ -1500,8 +1951,32 @@
       <c r="H18">
         <v>1.78263460887627</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="1">
+        <v>8.65010959938947</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.04961689705799</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.78263460887627</v>
+      </c>
+      <c r="M18" s="2">
+        <v>8.65010959938947</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2.04961689705799</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.78263460887627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>8.64308126349798</v>
       </c>
@@ -1526,8 +2001,32 @@
       <c r="H19">
         <v>1.68190132126023</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="1">
+        <v>8.64308126349798</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.21964665512483</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.68190132126023</v>
+      </c>
+      <c r="M19" s="2">
+        <v>8.64308126349798</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.21964665512483</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.68190132126023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>8.63622228509785</v>
       </c>
@@ -1552,8 +2051,32 @@
       <c r="H20">
         <v>1.56944611918626</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="1">
+        <v>8.63622228509785</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.409675696129813</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.56944611918626</v>
+      </c>
+      <c r="M20" s="2">
+        <v>8.63622228509785</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.409675696129813</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1.56944611918626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>8.62927862795204</v>
       </c>
@@ -1578,8 +2101,32 @@
       <c r="H21">
         <v>1.46318286969163</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="1">
+        <v>8.62927862795204</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-0.410294904334278</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.46318286969163</v>
+      </c>
+      <c r="M21" s="2">
+        <v>8.62927862795204</v>
+      </c>
+      <c r="N21" s="2">
+        <v>-0.410294904334278</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.46318286969163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>8.62258900704328</v>
       </c>
@@ -1604,8 +2151,32 @@
       <c r="H22">
         <v>1.33944031209332</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="1">
+        <v>8.62258900704328</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1.20026658039114</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.33944031209332</v>
+      </c>
+      <c r="M22" s="2">
+        <v>8.62258900704328</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-1.20026658039114</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1.33944031209332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>8.53714576801361</v>
       </c>
@@ -1630,8 +2201,32 @@
       <c r="H23">
         <v>1.22331893158063</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="1">
+        <v>8.53714576801361</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1.98563238872769</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.22331893158063</v>
+      </c>
+      <c r="M23" s="2">
+        <v>8.53714576801361</v>
+      </c>
+      <c r="N23" s="2">
+        <v>-1.98563238872769</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1.22331893158063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>8.44521316905764</v>
       </c>
@@ -1656,8 +2251,32 @@
       <c r="H24">
         <v>1.14771924316507</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="1">
+        <v>8.44521316905764</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-2.83064623314043</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.14771924316507</v>
+      </c>
+      <c r="M24" s="2">
+        <v>8.44521316905764</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-2.83064623314043</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1.14771924316507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>8.3554436900771</v>
       </c>
@@ -1682,8 +2301,32 @@
       <c r="H25">
         <v>1.06608563785779</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="1">
+        <v>8.3554436900771</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-3.65577739886111</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.06608563785779</v>
+      </c>
+      <c r="M25" s="2">
+        <v>8.3554436900771</v>
+      </c>
+      <c r="N25" s="2">
+        <v>-3.65577739886111</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1.06608563785779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>8.26891889105971</v>
       </c>
@@ -1708,8 +2351,32 @@
       <c r="H26">
         <v>0.974907863166677</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="1">
+        <v>8.26891889105971</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-4.45108454654369</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.974907863166677</v>
+      </c>
+      <c r="M26" s="2">
+        <v>8.26891889105971</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-4.45108454654369</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.974907863166677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>8.18023097206689</v>
       </c>
@@ -1734,8 +2401,32 @@
       <c r="H27">
         <v>0.905080072038117</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="1">
+        <v>8.18023097206689</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-5.26627437291833</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.905080072038117</v>
+      </c>
+      <c r="M27" s="2">
+        <v>8.18023097206689</v>
+      </c>
+      <c r="N27" s="2">
+        <v>-5.26627437291833</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.905080072038117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>8.15421350898502</v>
       </c>
@@ -1760,8 +2451,32 @@
       <c r="H28">
         <v>0.802365870697709</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="1">
+        <v>8.15421350898502</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-6.03583469648939</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.802365870697709</v>
+      </c>
+      <c r="M28" s="2">
+        <v>8.15421350898502</v>
+      </c>
+      <c r="N28" s="2">
+        <v>-6.03583469648939</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.802365870697709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>8.12718237851034</v>
       </c>
@@ -1786,8 +2501,32 @@
       <c r="H29">
         <v>0.724900030969674</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="1">
+        <v>8.12718237851034</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-6.83537788980996</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.724900030969674</v>
+      </c>
+      <c r="M29" s="2">
+        <v>8.12718237851034</v>
+      </c>
+      <c r="N29" s="2">
+        <v>-6.83537788980996</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.724900030969674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>8.09913758064287</v>
       </c>
@@ -1812,8 +2551,32 @@
       <c r="H30">
         <v>0.671799174947083</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="1">
+        <v>8.09913758064287</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-7.66490395288006</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.671799174947083</v>
+      </c>
+      <c r="M30" s="2">
+        <v>8.09913758064287</v>
+      </c>
+      <c r="N30" s="2">
+        <v>-7.66490395288006</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.671799174947083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>8.13322180090301</v>
       </c>
@@ -1838,8 +2601,32 @@
       <c r="H31">
         <v>0.5986610640246</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="1">
+        <v>8.13322180090301</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-8.49420381778374</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.5986610640246</v>
+      </c>
+      <c r="M31" s="2">
+        <v>8.13322180090301</v>
+      </c>
+      <c r="N31" s="2">
+        <v>-8.49420381778374</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.5986610640246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>8.16566340813855</v>
       </c>
@@ -1864,8 +2651,32 @@
       <c r="H32">
         <v>0.528719175920498</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="1">
+        <v>8.16566340813855</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-9.28353742413784</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.528719175920498</v>
+      </c>
+      <c r="M32" s="2">
+        <v>8.16566340813855</v>
+      </c>
+      <c r="N32" s="2">
+        <v>-9.28353742413784</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.528719175920498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>8.19851566863025</v>
       </c>
@@ -1890,8 +2701,32 @@
       <c r="H33">
         <v>0.483453827699196</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="1">
+        <v>8.19851566863025</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-10.0828625951293</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.483453827699196</v>
+      </c>
+      <c r="M33" s="2">
+        <v>8.19851566863025</v>
+      </c>
+      <c r="N33" s="2">
+        <v>-10.0828625951293</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.483453827699196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>8.23054662260965</v>
       </c>
@@ -1916,8 +2751,32 @@
       <c r="H34">
         <v>0.469016612019545</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="1">
+        <v>8.23054662260965</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-10.862204636846</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.469016612019545</v>
+      </c>
+      <c r="M34" s="2">
+        <v>8.23054662260965</v>
+      </c>
+      <c r="N34" s="2">
+        <v>-10.862204636846</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.469016612019545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>8.26216692333291</v>
       </c>
@@ -1942,8 +2801,32 @@
       <c r="H35">
         <v>0.494826981798173</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="1">
+        <v>8.26216692333291</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-11.6315551139254</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.494826981798173</v>
+      </c>
+      <c r="M35" s="2">
+        <v>8.26216692333291</v>
+      </c>
+      <c r="N35" s="2">
+        <v>-11.6315551139254</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.494826981798173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>7.99126366543695</v>
       </c>
@@ -1968,8 +2851,32 @@
       <c r="H36">
         <v>0.712424583070673</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="1">
+        <v>7.99126366543695</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-12.3736544501745</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.712424583070673</v>
+      </c>
+      <c r="M36" s="2">
+        <v>7.99126366543695</v>
+      </c>
+      <c r="N36" s="2">
+        <v>-12.3736544501745</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.712424583070673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>7.16249483936767</v>
       </c>
@@ -1994,8 +2901,32 @@
       <c r="H37">
         <v>0.556021291847232</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="1">
+        <v>7.16249483936767</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-12.6033112221969</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.556021291847232</v>
+      </c>
+      <c r="M37" s="2">
+        <v>7.16249483936767</v>
+      </c>
+      <c r="N37" s="2">
+        <v>-12.6033112221969</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.556021291847232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>6.31363346350918</v>
       </c>
@@ -2020,8 +2951,32 @@
       <c r="H38">
         <v>0.489391587382765</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="1">
+        <v>6.31363346350918</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-12.5593298104911</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.489391587382765</v>
+      </c>
+      <c r="M38" s="2">
+        <v>6.31363346350918</v>
+      </c>
+      <c r="N38" s="2">
+        <v>-12.5593298104911</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.489391587382765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>5.75438361588476</v>
       </c>
@@ -2046,8 +3001,32 @@
       <c r="H39">
         <v>0.778824718695361</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="1">
+        <v>5.75438361588476</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-12.5303538216027</v>
+      </c>
+      <c r="K39" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.52956970934141</v>
+      </c>
+      <c r="M39" s="2">
+        <v>5.38487925227577</v>
+      </c>
+      <c r="N39" s="2">
+        <v>-12.5112089718014</v>
+      </c>
+      <c r="O39" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.731141533802388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>4.8749288715753</v>
       </c>
@@ -2072,8 +3051,32 @@
       <c r="H40">
         <v>1.01752780085708</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="1">
+        <v>4.8749288715753</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-12.5613272410392</v>
+      </c>
+      <c r="K40" s="1">
+        <v>-0.43</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.725756694801287</v>
+      </c>
+      <c r="M40" s="2">
+        <v>4.43546788057806</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-12.5446461859658</v>
+      </c>
+      <c r="O40" s="2">
+        <v>-0.43</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.978571829513317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>4.15537498986756</v>
       </c>
@@ -2098,8 +3101,32 @@
       <c r="H41">
         <v>1.28214156073092</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="1">
+        <v>4.15537498986756</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-12.586669129669</v>
+      </c>
+      <c r="K41" s="1">
+        <v>-0.69</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.844798897636119</v>
+      </c>
+      <c r="M41" s="2">
+        <v>3.45607509714253</v>
+      </c>
+      <c r="N41" s="2">
+        <v>-12.5791393121564</v>
+      </c>
+      <c r="O41" s="2">
+        <v>-0.69</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1.25260008851729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>3.59572197076154</v>
       </c>
@@ -2124,8 +3151,32 @@
       <c r="H42">
         <v>1.56427205160701</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="1">
+        <v>3.59572197076154</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-12.6063794874922</v>
+      </c>
+      <c r="K42" s="1">
+        <v>-0.92</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.876356206605932</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2.46668850979439</v>
+      </c>
+      <c r="N42" s="2">
+        <v>-12.6139844090224</v>
+      </c>
+      <c r="O42" s="2">
+        <v>-0.92</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1.53828055030245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>3.10602557904378</v>
       </c>
@@ -2150,8 +3201,32 @@
       <c r="H43">
         <v>1.87771259001177</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="1">
+        <v>3.10602557904378</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-12.6236260505875</v>
+      </c>
+      <c r="K43" s="1">
+        <v>-1.11</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.870397571795534</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1.43732670679582</v>
+      </c>
+      <c r="N43" s="2">
+        <v>-12.6502373885901</v>
+      </c>
+      <c r="O43" s="2">
+        <v>-1.11</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1.85145471742862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>2.49033064570735</v>
       </c>
@@ -2176,8 +3251,32 @@
       <c r="H44">
         <v>2.1498298057436</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="1">
+        <v>2.49033064570735</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-12.6965626604885</v>
+      </c>
+      <c r="K44" s="1">
+        <v>-1.37</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.927204012172118</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.46413148958662</v>
+      </c>
+      <c r="N44" s="2">
+        <v>-12.765524288111</v>
+      </c>
+      <c r="O44" s="2">
+        <v>-1.37</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2.1276109121885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>2.10303867151185</v>
       </c>
@@ -2202,8 +3301,32 @@
       <c r="H45">
         <v>2.42902187315137</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="1">
+        <v>2.10303867151185</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-12.7424421409101</v>
+      </c>
+      <c r="K45" s="1">
+        <v>-1.6</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.857042193515189</v>
+      </c>
+      <c r="M45" s="2">
+        <v>-0.509063727622579</v>
+      </c>
+      <c r="N45" s="2">
+        <v>-12.8808111876319</v>
+      </c>
+      <c r="O45" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="P45" s="2">
+        <v>2.40818339423055</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>1.52706599193906</v>
       </c>
@@ -2228,8 +3351,32 @@
       <c r="H46">
         <v>2.69697386463425</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="1">
+        <v>1.52706599193906</v>
+      </c>
+      <c r="J46" s="1">
+        <v>-12.8106731630755</v>
+      </c>
+      <c r="K46" s="1">
+        <v>-1.86</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.894981858800293</v>
+      </c>
+      <c r="M46" s="2">
+        <v>-1.46239781794996</v>
+      </c>
+      <c r="N46" s="2">
+        <v>-12.993745293285</v>
+      </c>
+      <c r="O46" s="2">
+        <v>-1.86</v>
+      </c>
+      <c r="P46" s="2">
+        <v>2.67875867269156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>1.26721079491017</v>
       </c>
@@ -2254,8 +3401,32 @@
       <c r="H47">
         <v>3.00134368944568</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="1">
+        <v>1.26721079491017</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-12.8193493706039</v>
+      </c>
+      <c r="K47" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.752971045041838</v>
+      </c>
+      <c r="M47" s="2">
+        <v>-2.47183531410065</v>
+      </c>
+      <c r="N47" s="2">
+        <v>-13.02744902253</v>
+      </c>
+      <c r="O47" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>2.98450396920081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>0.667544955612726</v>
       </c>
@@ -2280,8 +3451,32 @@
       <c r="H48">
         <v>3.30670181005214</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="1">
+        <v>0.667544955612726</v>
+      </c>
+      <c r="J48" s="1">
+        <v>-12.8393713879772</v>
+      </c>
+      <c r="K48" s="1">
+        <v>-2.33</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.811695557874284</v>
+      </c>
+      <c r="M48" s="2">
+        <v>-3.48127281025134</v>
+      </c>
+      <c r="N48" s="2">
+        <v>-13.061152751775</v>
+      </c>
+      <c r="O48" s="2">
+        <v>-2.33</v>
+      </c>
+      <c r="P48" s="2">
+        <v>3.29054962895291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>0.219908477831838</v>
       </c>
@@ -2306,8 +3501,32 @@
       <c r="H49">
         <v>3.61744638973577</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="1">
+        <v>0.219908477831838</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-12.7933107349215</v>
+      </c>
+      <c r="K49" s="1">
+        <v>-2.52</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.790146639980946</v>
+      </c>
+      <c r="M49" s="2">
+        <v>-4.49591549322136</v>
+      </c>
+      <c r="N49" s="2">
+        <v>-12.9567486048487</v>
+      </c>
+      <c r="O49" s="2">
+        <v>-2.52</v>
+      </c>
+      <c r="P49" s="2">
+        <v>3.60028865267945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>-0.486362409333563</v>
       </c>
@@ -2332,8 +3551,32 @@
       <c r="H50">
         <v>3.84776007570615</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="1">
+        <v>-0.486362409333563</v>
+      </c>
+      <c r="J50" s="1">
+        <v>-12.7206372601002</v>
+      </c>
+      <c r="K50" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.909829671332337</v>
+      </c>
+      <c r="M50" s="2">
+        <v>-5.39118844878313</v>
+      </c>
+      <c r="N50" s="2">
+        <v>-12.8646272987373</v>
+      </c>
+      <c r="O50" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P50" s="2">
+        <v>3.83614097762298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>-1.3120030239072</v>
       </c>
@@ -2358,8 +3601,32 @@
       <c r="H51">
         <v>3.74496182254594</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="1">
+        <v>-1.3120030239072</v>
+      </c>
+      <c r="J51" s="1">
+        <v>-12.6356809444641</v>
+      </c>
+      <c r="K51" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.819649261104138</v>
+      </c>
+      <c r="M51" s="2">
+        <v>-6.21682906335677</v>
+      </c>
+      <c r="N51" s="2">
+        <v>-12.7796709831011</v>
+      </c>
+      <c r="O51" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P51" s="2">
+        <v>3.73302277682934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>-2.04289895987209</v>
       </c>
@@ -2384,8 +3651,32 @@
       <c r="H52">
         <v>3.59930389218696</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="1">
+        <v>-2.04289895987209</v>
+      </c>
+      <c r="J52" s="1">
+        <v>-12.263940267661</v>
+      </c>
+      <c r="K52" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.768731410328967</v>
+      </c>
+      <c r="M52" s="2">
+        <v>-6.94772499932166</v>
+      </c>
+      <c r="N52" s="2">
+        <v>-12.4079303062981</v>
+      </c>
+      <c r="O52" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P52" s="2">
+        <v>3.58688005212221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>-2.16858584816495</v>
       </c>
@@ -2410,8 +3701,32 @@
       <c r="H53">
         <v>3.66565304517563</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="1">
+        <v>-2.16858584816495</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-11.4333965866236</v>
+      </c>
+      <c r="K53" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.782012552667311</v>
+      </c>
+      <c r="M53" s="2">
+        <v>-7.07341188761452</v>
+      </c>
+      <c r="N53" s="2">
+        <v>-11.5773866252606</v>
+      </c>
+      <c r="O53" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P53" s="2">
+        <v>3.65345483721988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>-1.97264468955641</v>
       </c>
@@ -2436,8 +3751,32 @@
       <c r="H54">
         <v>3.54173164051597</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="1">
+        <v>-1.97264468955641</v>
+      </c>
+      <c r="J54" s="1">
+        <v>-10.6577632567807</v>
+      </c>
+      <c r="K54" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.622169530748166</v>
+      </c>
+      <c r="M54" s="2">
+        <v>-6.87747072900598</v>
+      </c>
+      <c r="N54" s="2">
+        <v>-10.8017532954177</v>
+      </c>
+      <c r="O54" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P54" s="2">
+        <v>3.52910512926888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>-1.77670353094787</v>
       </c>
@@ -2462,8 +3801,32 @@
       <c r="H55">
         <v>3.42266004509428</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="1">
+        <v>-1.77670353094787</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-9.88212992693781</v>
+      </c>
+      <c r="K55" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.47595611402713</v>
+      </c>
+      <c r="M55" s="2">
+        <v>-6.68152957039744</v>
+      </c>
+      <c r="N55" s="2">
+        <v>-10.0261199655748</v>
+      </c>
+      <c r="O55" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P55" s="2">
+        <v>3.40959261265694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>-1.69666405976279</v>
       </c>
@@ -2488,8 +3851,32 @@
       <c r="H56">
         <v>3.37714765199087</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="1">
+        <v>-1.69666405976279</v>
+      </c>
+      <c r="J56" s="1">
+        <v>-9.06604556668306</v>
+      </c>
+      <c r="K56" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.425028256067426</v>
+      </c>
+      <c r="M56" s="2">
+        <v>-6.60149009921236</v>
+      </c>
+      <c r="N56" s="2">
+        <v>-9.2100356053201</v>
+      </c>
+      <c r="O56" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P56" s="2">
+        <v>3.36390342657863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>-1.25788638531883</v>
       </c>
@@ -2514,8 +3901,32 @@
       <c r="H57">
         <v>3.75166557395749</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="1">
+        <v>-1.25788638531883</v>
+      </c>
+      <c r="J57" s="1">
+        <v>-9.78233751303562</v>
+      </c>
+      <c r="K57" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.891243429912597</v>
+      </c>
+      <c r="M57" s="2">
+        <v>-6.1627124247684</v>
+      </c>
+      <c r="N57" s="2">
+        <v>-9.92632755167267</v>
+      </c>
+      <c r="O57" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P57" s="2">
+        <v>3.73974792985006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>-0.53930795070517</v>
       </c>
@@ -2540,8 +3951,32 @@
       <c r="H58">
         <v>3.92988059545824</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="1">
+        <v>-0.53930795070517</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-9.91096501129387</v>
+      </c>
+      <c r="K58" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.07522715683993</v>
+      </c>
+      <c r="M58" s="2">
+        <v>-5.44413399015474</v>
+      </c>
+      <c r="N58" s="2">
+        <v>-10.0549550499309</v>
+      </c>
+      <c r="O58" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P58" s="2">
+        <v>3.91850500759655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>0.287549426110554</v>
       </c>
@@ -2566,8 +4001,32 @@
       <c r="H59">
         <v>3.75315694690915</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="1">
+        <v>0.287549426110554</v>
+      </c>
+      <c r="J59" s="1">
+        <v>-10.0589747353171</v>
+      </c>
+      <c r="K59" s="1">
+        <v>-2.89</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.968133770870166</v>
+      </c>
+      <c r="M59" s="2">
+        <v>-4.61727661333901</v>
+      </c>
+      <c r="N59" s="2">
+        <v>-10.2029647739541</v>
+      </c>
+      <c r="O59" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="P59" s="2">
+        <v>3.74124405353786</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>0.907488163748255</v>
       </c>
@@ -2592,8 +4051,32 @@
       <c r="H60">
         <v>3.49025837308348</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="1">
+        <v>0.907488163748255</v>
+      </c>
+      <c r="J60" s="1">
+        <v>-10.0676903291679</v>
+      </c>
+      <c r="K60" s="1">
+        <v>-3.16</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.918146018063347</v>
+      </c>
+      <c r="M60" s="2">
+        <v>-3.6673704830877</v>
+      </c>
+      <c r="N60" s="2">
+        <v>-10.2163193129191</v>
+      </c>
+      <c r="O60" s="2">
+        <v>-3.16</v>
+      </c>
+      <c r="P60" s="2">
+        <v>3.47827306445013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>1.45743381810428</v>
       </c>
@@ -2618,8 +4101,32 @@
       <c r="H61">
         <v>3.22911683589264</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="1">
+        <v>1.45743381810428</v>
+      </c>
+      <c r="J61" s="1">
+        <v>-10.0754219043582</v>
+      </c>
+      <c r="K61" s="1">
+        <v>-3.42</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.899975302862337</v>
+      </c>
+      <c r="M61" s="2">
+        <v>-2.71746435283638</v>
+      </c>
+      <c r="N61" s="2">
+        <v>-10.2296738518841</v>
+      </c>
+      <c r="O61" s="2">
+        <v>-3.42</v>
+      </c>
+      <c r="P61" s="2">
+        <v>3.21660621460652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>1.88739132969172</v>
       </c>
@@ -2644,8 +4151,32 @@
       <c r="H62">
         <v>2.98548689837534</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="1">
+        <v>1.88739132969172</v>
+      </c>
+      <c r="J62" s="1">
+        <v>-10.081466590416</v>
+      </c>
+      <c r="K62" s="1">
+        <v>-3.83</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.932197669056965</v>
+      </c>
+      <c r="M62" s="2">
+        <v>-1.80755427017459</v>
+      </c>
+      <c r="N62" s="2">
+        <v>-10.2424660944717</v>
+      </c>
+      <c r="O62" s="2">
+        <v>-3.83</v>
+      </c>
+      <c r="P62" s="2">
+        <v>2.97969327622338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>2.50733006732942</v>
       </c>
@@ -2670,8 +4201,32 @@
       <c r="H63">
         <v>2.74054000520764</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="1">
+        <v>2.50733006732942</v>
+      </c>
+      <c r="J63" s="1">
+        <v>-10.0901821842669</v>
+      </c>
+      <c r="K63" s="1">
+        <v>-4.05</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.885155740219536</v>
+      </c>
+      <c r="M63" s="2">
+        <v>-0.87764616371804</v>
+      </c>
+      <c r="N63" s="2">
+        <v>-10.2555394852479</v>
+      </c>
+      <c r="O63" s="2">
+        <v>-4.05</v>
+      </c>
+      <c r="P63" s="2">
+        <v>2.73264698051971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>3.08727275737759</v>
       </c>
@@ -2696,8 +4251,32 @@
       <c r="H64">
         <v>2.49533748885144</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="1">
+        <v>3.08727275737759</v>
+      </c>
+      <c r="J64" s="1">
+        <v>-10.0983354817402</v>
+      </c>
+      <c r="K64" s="1">
+        <v>-4.33</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.858191275855729</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.0522619427385125</v>
+      </c>
+      <c r="N64" s="2">
+        <v>-10.2686128760242</v>
+      </c>
+      <c r="O64" s="2">
+        <v>-4.33</v>
+      </c>
+      <c r="P64" s="2">
+        <v>2.4884029382854</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>3.66721544742576</v>
       </c>
@@ -2722,8 +4301,32 @@
       <c r="H65">
         <v>2.24803577830923</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="1">
+        <v>3.66721544742576</v>
+      </c>
+      <c r="J65" s="1">
+        <v>-10.1064887792136</v>
+      </c>
+      <c r="K65" s="1">
+        <v>-4.6</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.833081695052465</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.992169061092447</v>
+      </c>
+      <c r="N65" s="2">
+        <v>-10.2818268408948</v>
+      </c>
+      <c r="O65" s="2">
+        <v>-4.6</v>
+      </c>
+      <c r="P65" s="2">
+        <v>2.24162103410866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>4.327150232653</v>
       </c>
@@ -2748,8 +4351,32 @@
       <c r="H66">
         <v>2.00967644476281</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="1">
+        <v>4.327150232653</v>
+      </c>
+      <c r="J66" s="1">
+        <v>-10.1157666694419</v>
+      </c>
+      <c r="K66" s="1">
+        <v>-4.79</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0.782134480265595</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1.93207617944638</v>
+      </c>
+      <c r="N66" s="2">
+        <v>-10.2950408057655</v>
+      </c>
+      <c r="O66" s="2">
+        <v>-4.79</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1.99817902417038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>4.90709292270117</v>
       </c>
@@ -2774,8 +4401,32 @@
       <c r="H67">
         <v>1.76629724678349</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="1">
+        <v>4.90709292270117</v>
+      </c>
+      <c r="J67" s="1">
+        <v>-10.1239199669153</v>
+      </c>
+      <c r="K67" s="1">
+        <v>-5.01</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.762456924660736</v>
+      </c>
+      <c r="M67" s="2">
+        <v>2.89198132159508</v>
+      </c>
+      <c r="N67" s="2">
+        <v>-10.3085359188249</v>
+      </c>
+      <c r="O67" s="2">
+        <v>-5.01</v>
+      </c>
+      <c r="P67" s="2">
+        <v>1.75073869095161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>5.58702573172316</v>
       </c>
@@ -2800,8 +4451,32 @@
       <c r="H68">
         <v>1.54722110286223</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="1">
+        <v>5.58702573172316</v>
+      </c>
+      <c r="J68" s="1">
+        <v>-10.1334790053324</v>
+      </c>
+      <c r="K68" s="1">
+        <v>-5.31</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.724715161041702</v>
+      </c>
+      <c r="M68" s="2">
+        <v>3.81189041615425</v>
+      </c>
+      <c r="N68" s="2">
+        <v>-10.3214687355068</v>
+      </c>
+      <c r="O68" s="2">
+        <v>-5.31</v>
+      </c>
+      <c r="P68" s="2">
+        <v>1.53413595914515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>6.22387139164984</v>
       </c>
@@ -2826,8 +4501,32 @@
       <c r="H69">
         <v>1.38104054332309</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="1">
+        <v>6.22387139164984</v>
+      </c>
+      <c r="J69" s="1">
+        <v>-10.1969424233979</v>
+      </c>
+      <c r="K69" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.737028182894263</v>
+      </c>
+      <c r="M69" s="2">
+        <v>4.72735605229885</v>
+      </c>
+      <c r="N69" s="2">
+        <v>-10.4126973989759</v>
+      </c>
+      <c r="O69" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="P69" s="2">
+        <v>1.36002683146404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>6.95027347250371</v>
       </c>
@@ -2852,8 +4551,32 @@
       <c r="H70">
         <v>1.25484509458214</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="1">
+        <v>6.95027347250371</v>
+      </c>
+      <c r="J70" s="1">
+        <v>-10.2693303846288</v>
+      </c>
+      <c r="K70" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.762772605064153</v>
+      </c>
+      <c r="M70" s="2">
+        <v>5.58311740782532</v>
+      </c>
+      <c r="N70" s="2">
+        <v>-10.4979763670014</v>
+      </c>
+      <c r="O70" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P70" s="2">
+        <v>1.23751210555568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>7.78613340115747</v>
       </c>
@@ -2878,8 +4601,32 @@
       <c r="H71">
         <v>1.20434684656857</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="1">
+        <v>7.78613340115747</v>
+      </c>
+      <c r="J71" s="1">
+        <v>-10.3526261208398</v>
+      </c>
+      <c r="K71" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.838170095250927</v>
+      </c>
+      <c r="M71" s="2">
+        <v>6.41897733647909</v>
+      </c>
+      <c r="N71" s="2">
+        <v>-10.5812721032124</v>
+      </c>
+      <c r="O71" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P71" s="2">
+        <v>1.15553075547112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>8.58219047606582</v>
       </c>
@@ -2904,8 +4651,32 @@
       <c r="H72">
         <v>1.31024580043399</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="1">
+        <v>8.58219047606582</v>
+      </c>
+      <c r="J72" s="1">
+        <v>-10.4319553934216</v>
+      </c>
+      <c r="K72" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.868913429702795</v>
+      </c>
+      <c r="M72" s="2">
+        <v>7.21503441138743</v>
+      </c>
+      <c r="N72" s="2">
+        <v>-10.6606013757942</v>
+      </c>
+      <c r="O72" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1.26552125922677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>9.40809969128323</v>
       </c>
@@ -2930,8 +4701,32 @@
       <c r="H73">
         <v>1.41051884952537</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="1">
+        <v>9.40809969128323</v>
+      </c>
+      <c r="J73" s="1">
+        <v>-10.5142595137253</v>
+      </c>
+      <c r="K73" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.918103433712096</v>
+      </c>
+      <c r="M73" s="2">
+        <v>8.04094362660484</v>
+      </c>
+      <c r="N73" s="2">
+        <v>-10.7429054960979</v>
+      </c>
+      <c r="O73" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1.36907392965697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>10.083701744415</v>
       </c>
@@ -2956,8 +4751,32 @@
       <c r="H74">
         <v>1.72393854025145</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="1">
+        <v>10.083701744415</v>
+      </c>
+      <c r="J74" s="1">
+        <v>-10.9427007183311</v>
+      </c>
+      <c r="K74" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1.19810705477377</v>
+      </c>
+      <c r="M74" s="2">
+        <v>8.71654567973664</v>
+      </c>
+      <c r="N74" s="2">
+        <v>-11.1713467007037</v>
+      </c>
+      <c r="O74" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1.69019646507863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>10.2572679425932</v>
       </c>
@@ -2982,8 +4801,32 @@
       <c r="H75">
         <v>1.56961078987442</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="1">
+        <v>10.2572679425932</v>
+      </c>
+      <c r="J75" s="1">
+        <v>-11.7441211915223</v>
+      </c>
+      <c r="K75" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1.06335127294214</v>
+      </c>
+      <c r="M75" s="2">
+        <v>8.8901118779148</v>
+      </c>
+      <c r="N75" s="2">
+        <v>-11.9727671738949</v>
+      </c>
+      <c r="O75" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P75" s="2">
+        <v>1.53247447994745</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>10.2314155528547</v>
       </c>
@@ -3008,8 +4851,32 @@
       <c r="H76">
         <v>1.48692343269668</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="1">
+        <v>10.2314155528547</v>
+      </c>
+      <c r="J76" s="1">
+        <v>-12.533698074381</v>
+      </c>
+      <c r="K76" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.941898221624282</v>
+      </c>
+      <c r="M76" s="2">
+        <v>8.86425948817634</v>
+      </c>
+      <c r="N76" s="2">
+        <v>-12.7623440567536</v>
+      </c>
+      <c r="O76" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P76" s="2">
+        <v>1.44766753597036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>10.2032724450382</v>
       </c>
@@ -3034,8 +4901,32 @@
       <c r="H77">
         <v>1.43987682214629</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="1">
+        <v>10.2032724450382</v>
+      </c>
+      <c r="J77" s="1">
+        <v>-13.3932374658474</v>
+      </c>
+      <c r="K77" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.863074061782192</v>
+      </c>
+      <c r="M77" s="2">
+        <v>8.8361163803598</v>
+      </c>
+      <c r="N77" s="2">
+        <v>-13.62188344822</v>
+      </c>
+      <c r="O77" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P77" s="2">
+        <v>1.39930170547816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>9.80178811840217</v>
       </c>
@@ -3060,8 +4951,32 @@
       <c r="H78">
         <v>1.51943110662478</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="1">
+        <v>9.80178811840217</v>
+      </c>
+      <c r="J78" s="1">
+        <v>-14.1082272108547</v>
+      </c>
+      <c r="K78" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.795009595976016</v>
+      </c>
+      <c r="M78" s="2">
+        <v>8.43463205372378</v>
+      </c>
+      <c r="N78" s="2">
+        <v>-14.3368731932273</v>
+      </c>
+      <c r="O78" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P78" s="2">
+        <v>1.48103709871799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>9.05207976206425</v>
       </c>
@@ -3086,8 +5001,32 @@
       <c r="H79">
         <v>1.4903361636724</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="1">
+        <v>9.05207976206425</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-14.357300253228</v>
+      </c>
+      <c r="K79" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0.865934608447707</v>
+      </c>
+      <c r="M79" s="2">
+        <v>7.68492369738586</v>
+      </c>
+      <c r="N79" s="2">
+        <v>-14.5859462356006</v>
+      </c>
+      <c r="O79" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P79" s="2">
+        <v>1.4511725882023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>8.28206498729453</v>
       </c>
@@ -3112,8 +5051,32 @@
       <c r="H80">
         <v>1.30720182129688</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="1">
+        <v>8.28206498729453</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-14.1403273364012</v>
+      </c>
+      <c r="K80" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.706840263006013</v>
+      </c>
+      <c r="M80" s="2">
+        <v>6.91490892261615</v>
+      </c>
+      <c r="N80" s="2">
+        <v>-14.3689733187737</v>
+      </c>
+      <c r="O80" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P80" s="2">
+        <v>1.26236943942804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>8.09877017751688</v>
       </c>
@@ -3138,8 +5101,32 @@
       <c r="H81">
         <v>1.44412337206269</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="1">
+        <v>8.09877017751688</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-13.2898551071611</v>
+      </c>
+      <c r="K81" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0.819326653082261</v>
+      </c>
+      <c r="M81" s="2">
+        <v>6.73161411283849</v>
+      </c>
+      <c r="N81" s="2">
+        <v>-13.5185010895337</v>
+      </c>
+      <c r="O81" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P81" s="2">
+        <v>1.40367101335666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>8.19605765953269</v>
       </c>
@@ -3164,8 +5151,32 @@
       <c r="H82">
         <v>1.48929500668339</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="1">
+        <v>8.19605765953269</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-12.5058684071189</v>
+      </c>
+      <c r="K82" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.929519993394189</v>
+      </c>
+      <c r="M82" s="2">
+        <v>6.82890159485431</v>
+      </c>
+      <c r="N82" s="2">
+        <v>-12.7345143894915</v>
+      </c>
+      <c r="O82" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P82" s="2">
+        <v>1.45010331250297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>8.46992729785042</v>
       </c>
@@ -3190,8 +5201,32 @@
       <c r="H83">
         <v>1.43487277742574</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="1">
+        <v>8.46992729785042</v>
+      </c>
+      <c r="J83" s="1">
+        <v>-11.6171077975014</v>
+      </c>
+      <c r="K83" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0.977823664376951</v>
+      </c>
+      <c r="M83" s="2">
+        <v>7.10277123317203</v>
+      </c>
+      <c r="N83" s="2">
+        <v>-11.845753779874</v>
+      </c>
+      <c r="O83" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P83" s="2">
+        <v>1.39415203166564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>8.5916463252514</v>
       </c>
@@ -3216,8 +5251,32 @@
       <c r="H84">
         <v>0.726311832793757</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="1">
+        <v>8.5916463252514</v>
+      </c>
+      <c r="J84" s="1">
+        <v>-10.7859733448594</v>
+      </c>
+      <c r="K84" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0.81596598420225</v>
+      </c>
+      <c r="M84" s="2">
+        <v>7.22449026057302</v>
+      </c>
+      <c r="N84" s="2">
+        <v>-11.0146193272319</v>
+      </c>
+      <c r="O84" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0.642128397173203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>7.99794065578364</v>
       </c>
@@ -3242,8 +5301,32 @@
       <c r="H85">
         <v>0.412978006232079</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="1">
+        <v>7.99794065578364</v>
+      </c>
+      <c r="J85" s="1">
+        <v>-10.2349619311465</v>
+      </c>
+      <c r="K85" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0.615867971370026</v>
+      </c>
+      <c r="M85" s="2">
+        <v>6.63078459110526</v>
+      </c>
+      <c r="N85" s="2">
+        <v>-10.4636079135191</v>
+      </c>
+      <c r="O85" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0.356862485603941</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>7.14253483756614</v>
       </c>
@@ -3268,8 +5351,32 @@
       <c r="H86">
         <v>0.465196339212184</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="1">
+        <v>7.14253483756614</v>
+      </c>
+      <c r="J86" s="1">
+        <v>-10.0283684023039</v>
+      </c>
+      <c r="K86" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.425812261618606</v>
+      </c>
+      <c r="M86" s="2">
+        <v>5.77537877288776</v>
+      </c>
+      <c r="N86" s="2">
+        <v>-10.2570143846765</v>
+      </c>
+      <c r="O86" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0.495184444441077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>6.28454024233364</v>
       </c>
@@ -3294,8 +5401,32 @@
       <c r="H87">
         <v>0.667937954551881</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="1">
+        <v>6.28454024233364</v>
+      </c>
+      <c r="J87" s="1">
+        <v>-9.88433620259901</v>
+      </c>
+      <c r="K87" s="1">
+        <v>-5.54</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.253453851565018</v>
+      </c>
+      <c r="M87" s="2">
+        <v>4.89766016397176</v>
+      </c>
+      <c r="N87" s="2">
+        <v>-10.1096710999209</v>
+      </c>
+      <c r="O87" s="2">
+        <v>-5.54</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0.687067035398258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>5.66323381130321</v>
       </c>
@@ -3320,8 +5451,32 @@
       <c r="H88">
         <v>0.853728026690232</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="1">
+        <v>5.66323381130321</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-9.78003702350239</v>
+      </c>
+      <c r="K88" s="1">
+        <v>-5.33</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0.257321658135523</v>
+      </c>
+      <c r="M88" s="2">
+        <v>4.07911359610627</v>
+      </c>
+      <c r="N88" s="2">
+        <v>-9.97226107031743</v>
+      </c>
+      <c r="O88" s="2">
+        <v>-5.33</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0.875380799170508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>5.04192738027278</v>
       </c>
@@ -3346,8 +5501,32 @@
       <c r="H89">
         <v>1.05449153578107</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="1">
+        <v>5.04192738027278</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-9.67573784440576</v>
+      </c>
+      <c r="K89" s="1">
+        <v>-5.12</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0.296258985139992</v>
+      </c>
+      <c r="M89" s="2">
+        <v>3.25070502139903</v>
+      </c>
+      <c r="N89" s="2">
+        <v>-9.8331954981886</v>
+      </c>
+      <c r="O89" s="2">
+        <v>-5.12</v>
+      </c>
+      <c r="P89" s="2">
+        <v>1.07745644878757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>4.41390731064481</v>
       </c>
@@ -3372,8 +5551,32 @@
       <c r="H90">
         <v>1.2778444662272</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="1">
+        <v>4.41390731064481</v>
+      </c>
+      <c r="J90" s="1">
+        <v>-9.62583000790217</v>
+      </c>
+      <c r="K90" s="1">
+        <v>-4.92</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.341428540536499</v>
+      </c>
+      <c r="M90" s="2">
+        <v>2.38343921096039</v>
+      </c>
+      <c r="N90" s="2">
+        <v>-9.76427515254078</v>
+      </c>
+      <c r="O90" s="2">
+        <v>-4.92</v>
+      </c>
+      <c r="P90" s="2">
+        <v>1.30240027636187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>3.80582438608438</v>
       </c>
@@ -3398,8 +5601,32 @@
       <c r="H91">
         <v>1.48352884932955</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="1">
+        <v>3.80582438608438</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-9.5775065471606</v>
+      </c>
+      <c r="K91" s="1">
+        <v>-5.21</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0.640007624347867</v>
+      </c>
+      <c r="M91" s="2">
+        <v>1.54607911812309</v>
+      </c>
+      <c r="N91" s="2">
+        <v>-9.69773137053599</v>
+      </c>
+      <c r="O91" s="2">
+        <v>-5.21</v>
+      </c>
+      <c r="P91" s="2">
+        <v>1.59137985622323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>3.08808716365241</v>
       </c>
@@ -3424,8 +5651,32 @@
       <c r="H92">
         <v>1.70131913376441</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="1">
+        <v>3.08808716365241</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-9.52046901972792</v>
+      </c>
+      <c r="K92" s="1">
+        <v>-5.43</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.938098061230223</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0.688781880218229</v>
+      </c>
+      <c r="N92" s="2">
+        <v>-9.62960321276918</v>
+      </c>
+      <c r="O92" s="2">
+        <v>-5.43</v>
+      </c>
+      <c r="P92" s="2">
+        <v>1.90541722331696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>2.39028708628799</v>
       </c>
@@ -3450,8 +5701,32 @@
       <c r="H93">
         <v>1.90740196495874</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="1">
+        <v>2.39028708628799</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-9.46501586805726</v>
+      </c>
+      <c r="K93" s="1">
+        <v>-5.21</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1.00211817121933</v>
+      </c>
+      <c r="M93" s="2">
+        <v>-0.148578212619076</v>
+      </c>
+      <c r="N93" s="2">
+        <v>-9.56305943076439</v>
+      </c>
+      <c r="O93" s="2">
+        <v>-5.21</v>
+      </c>
+      <c r="P93" s="2">
+        <v>2.0988049590013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>1.56289556598446</v>
       </c>
@@ -3476,8 +5751,32 @@
       <c r="H94">
         <v>2.1013682082188</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="1">
+        <v>1.57286413851824</v>
+      </c>
+      <c r="J94" s="1">
+        <v>-9.4000564618145</v>
+      </c>
+      <c r="K94" s="1">
+        <v>-5.21</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1.22135201136944</v>
+      </c>
+      <c r="M94" s="2">
+        <v>-0.966001160388825</v>
+      </c>
+      <c r="N94" s="2">
+        <v>-9.49810002452162</v>
+      </c>
+      <c r="O94" s="2">
+        <v>-5.21</v>
+      </c>
+      <c r="P94" s="2">
+        <v>2.33839696085003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>0.845158343552485</v>
       </c>
@@ -3502,8 +5801,32 @@
       <c r="H95">
         <v>2.30165946229775</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="1">
+        <v>0.745472618214711</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-9.33430486769072</v>
+      </c>
+      <c r="K95" s="1">
+        <v>-5.21</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1.45227133342863</v>
+      </c>
+      <c r="M95" s="2">
+        <v>-1.79339268069235</v>
+      </c>
+      <c r="N95" s="2">
+        <v>-9.43234843039784</v>
+      </c>
+      <c r="O95" s="2">
+        <v>-5.21</v>
+      </c>
+      <c r="P95" s="2">
+        <v>2.58443732374859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>-0.0719503295550389</v>
       </c>
@@ -3528,8 +5851,32 @@
       <c r="H96">
         <v>2.18197250978301</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="1">
+        <v>-0.171636054892813</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-9.26142358263785</v>
+      </c>
+      <c r="K96" s="1">
+        <v>-4.95</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1.43508237428623</v>
+      </c>
+      <c r="M96" s="2">
+        <v>-2.58090991086077</v>
+      </c>
+      <c r="N96" s="2">
+        <v>-9.3697655877981</v>
+      </c>
+      <c r="O96" s="2">
+        <v>-4.95</v>
+      </c>
+      <c r="P96" s="2">
+        <v>2.47550803542399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>-0.739844689318127</v>
       </c>
@@ -3554,8 +5901,32 @@
       <c r="H97">
         <v>2.04856547128387</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="1">
+        <v>-0.839530414655901</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-9.20834699461022</v>
+      </c>
+      <c r="K97" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1.23278111897733</v>
+      </c>
+      <c r="M97" s="2">
+        <v>-3.32855285089408</v>
+      </c>
+      <c r="N97" s="2">
+        <v>-9.3103514967224</v>
+      </c>
+      <c r="O97" s="2">
+        <v>-4.7</v>
+      </c>
+      <c r="P97" s="2">
+        <v>2.28038516267242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>-1.5279658683102</v>
       </c>
@@ -3580,8 +5951,32 @@
       <c r="H98">
         <v>2.63641049232791</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="1">
+        <v>-1.62765159364797</v>
+      </c>
+      <c r="J98" s="1">
+        <v>-9.39533631843421</v>
+      </c>
+      <c r="K98" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1.70912559130299</v>
+      </c>
+      <c r="M98" s="2">
+        <v>-4.11667402988615</v>
+      </c>
+      <c r="N98" s="2">
+        <v>-9.49734082054638</v>
+      </c>
+      <c r="O98" s="2">
+        <v>-4.7</v>
+      </c>
+      <c r="P98" s="2">
+        <v>2.82031847209791</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>-1.84440036253342</v>
       </c>
@@ -3606,8 +6001,32 @@
       <c r="H99">
         <v>2.85815519580272</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="1">
+        <v>-1.94408608787119</v>
+      </c>
+      <c r="J99" s="1">
+        <v>-10.184240121737</v>
+      </c>
+      <c r="K99" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1.89418153167086</v>
+      </c>
+      <c r="M99" s="2">
+        <v>-4.43310852410937</v>
+      </c>
+      <c r="N99" s="2">
+        <v>-10.2862446238492</v>
+      </c>
+      <c r="O99" s="2">
+        <v>-4.7</v>
+      </c>
+      <c r="P99" s="2">
+        <v>3.02862792751009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>-1.6715072586153</v>
       </c>
@@ -3632,8 +6051,32 @@
       <c r="H100">
         <v>3.203897348001</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="1">
+        <v>-1.77119298395308</v>
+      </c>
+      <c r="J100" s="1">
+        <v>-11.0368877480268</v>
+      </c>
+      <c r="K100" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2.03444205499104</v>
+      </c>
+      <c r="M100" s="2">
+        <v>-4.26021542019125</v>
+      </c>
+      <c r="N100" s="2">
+        <v>-11.138892250139</v>
+      </c>
+      <c r="O100" s="2">
+        <v>-4.7</v>
+      </c>
+      <c r="P100" s="2">
+        <v>3.35685778914268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>-0.843092723784424</v>
       </c>
@@ -3658,8 +6101,32 @@
       <c r="H101">
         <v>2.97867997349128</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="1">
+        <v>-0.942778449122199</v>
+      </c>
+      <c r="J101" s="1">
+        <v>-11.3337536411182</v>
+      </c>
+      <c r="K101" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1.91751878071608</v>
+      </c>
+      <c r="M101" s="2">
+        <v>-3.43180088536038</v>
+      </c>
+      <c r="N101" s="2">
+        <v>-11.4357581432304</v>
+      </c>
+      <c r="O101" s="2">
+        <v>-4.7</v>
+      </c>
+      <c r="P101" s="2">
+        <v>3.19994849716023</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>-0.11532955722704</v>
       </c>
@@ -3684,8 +6151,32 @@
       <c r="H102">
         <v>2.72651835854774</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="1">
+        <v>-0.215015282564814</v>
+      </c>
+      <c r="J102" s="1">
+        <v>-11.3908568231869</v>
+      </c>
+      <c r="K102" s="1">
+        <v>-4.36</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1.77349973788195</v>
+      </c>
+      <c r="M102" s="2">
+        <v>-2.51461990832915</v>
+      </c>
+      <c r="N102" s="2">
+        <v>-11.5077237973443</v>
+      </c>
+      <c r="O102" s="2">
+        <v>-4.36</v>
+      </c>
+      <c r="P102" s="2">
+        <v>2.94451054667798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>0.502770666424437</v>
       </c>
@@ -3710,8 +6201,32 @@
       <c r="H103">
         <v>2.52637507180454</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="1">
+        <v>0.403084941086663</v>
+      </c>
+      <c r="J103" s="1">
+        <v>-11.4393554161767</v>
+      </c>
+      <c r="K103" s="1">
+        <v>-4.15</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1.73080762678019</v>
+      </c>
+      <c r="M103" s="2">
+        <v>-1.68716315731185</v>
+      </c>
+      <c r="N103" s="2">
+        <v>-11.572649333121</v>
+      </c>
+      <c r="O103" s="2">
+        <v>-4.15</v>
+      </c>
+      <c r="P103" s="2">
+        <v>2.77073762803976</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>1.39004356811769</v>
       </c>
@@ -3736,8 +6251,32 @@
       <c r="H104">
         <v>2.30313945891215</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="1">
+        <v>1.29035784277991</v>
+      </c>
+      <c r="J104" s="1">
+        <v>-11.5089743641782</v>
+      </c>
+      <c r="K104" s="1">
+        <v>-3.9</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1.56161252975256</v>
+      </c>
+      <c r="M104" s="2">
+        <v>-0.819828972510584</v>
+      </c>
+      <c r="N104" s="2">
+        <v>-11.640703810381</v>
+      </c>
+      <c r="O104" s="2">
+        <v>-3.9</v>
+      </c>
+      <c r="P104" s="2">
+        <v>2.56882606791471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>1.91841956575524</v>
       </c>
@@ -3762,8 +6301,32 @@
       <c r="H105">
         <v>2.09808974774851</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="1">
+        <v>1.81873384041747</v>
+      </c>
+      <c r="J105" s="1">
+        <v>-11.5504328388308</v>
+      </c>
+      <c r="K105" s="1">
+        <v>-3.65</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1.54594823698379</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0.0175971369527076</v>
+      </c>
+      <c r="N105" s="2">
+        <v>-11.7064115815285</v>
+      </c>
+      <c r="O105" s="2">
+        <v>-3.65</v>
+      </c>
+      <c r="P105" s="2">
+        <v>2.38671250669355</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>2.83832364188695</v>
       </c>
@@ -3788,8 +6351,32 @@
       <c r="H106">
         <v>1.88384711634183</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="1">
+        <v>2.73863791654918</v>
+      </c>
+      <c r="J106" s="1">
+        <v>-11.5371478579779</v>
+      </c>
+      <c r="K106" s="1">
+        <v>-3.4</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1.39624349879921</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0.877507468988873</v>
+      </c>
+      <c r="N106" s="2">
+        <v>-11.6939930124703</v>
+      </c>
+      <c r="O106" s="2">
+        <v>-3.4</v>
+      </c>
+      <c r="P106" s="2">
+        <v>2.20074895382218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>3.36826838139761</v>
       </c>
@@ -3814,8 +6401,32 @@
       <c r="H107">
         <v>1.66500825085216</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="1">
+        <v>3.26858265605984</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-11.5294945537909</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-3.68</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1.65872211595338</v>
+      </c>
+      <c r="M107" s="2">
+        <v>1.74741675837429</v>
+      </c>
+      <c r="N107" s="2">
+        <v>-11.6814300414464</v>
+      </c>
+      <c r="O107" s="2">
+        <v>-3.68</v>
+      </c>
+      <c r="P107" s="2">
+        <v>2.21131555310538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>4.18818288403675</v>
       </c>
@@ -3840,8 +6451,32 @@
       <c r="H108">
         <v>1.42089484496325</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="1">
+        <v>4.08849715869897</v>
+      </c>
+      <c r="J108" s="1">
+        <v>-11.5176535925959</v>
+      </c>
+      <c r="K108" s="1">
+        <v>-3.88</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1.83544064875898</v>
+      </c>
+      <c r="M108" s="2">
+        <v>2.65732187715675</v>
+      </c>
+      <c r="N108" s="2">
+        <v>-11.6682894625592</v>
+      </c>
+      <c r="O108" s="2">
+        <v>-3.88</v>
+      </c>
+      <c r="P108" s="2">
+        <v>2.23636449632951</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>4.85811302643701</v>
       </c>
@@ -3866,8 +6501,32 @@
       <c r="H109">
         <v>1.21713439037098</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="1">
+        <v>4.75842730109924</v>
+      </c>
+      <c r="J109" s="1">
+        <v>-11.5079786608878</v>
+      </c>
+      <c r="K109" s="1">
+        <v>-3.57</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1.77425742881996</v>
+      </c>
+      <c r="M109" s="2">
+        <v>3.50723325184366</v>
+      </c>
+      <c r="N109" s="2">
+        <v>-11.6560152954669</v>
+      </c>
+      <c r="O109" s="2">
+        <v>-3.57</v>
+      </c>
+      <c r="P109" s="2">
+        <v>2.082081680488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>5.51804421148802</v>
       </c>
@@ -3892,8 +6551,32 @@
       <c r="H110">
         <v>1.01318206568698</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="1">
+        <v>5.41835848615025</v>
+      </c>
+      <c r="J110" s="1">
+        <v>-11.4984481311455</v>
+      </c>
+      <c r="K110" s="1">
+        <v>-3.32</v>
+      </c>
+      <c r="L110" s="1">
+        <v>1.75362881078139</v>
+      </c>
+      <c r="M110" s="2">
+        <v>4.35714462653056</v>
+      </c>
+      <c r="N110" s="2">
+        <v>-11.6437411283745</v>
+      </c>
+      <c r="O110" s="2">
+        <v>-3.32</v>
+      </c>
+      <c r="P110" s="2">
+        <v>1.96981874755769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>6.11698550870408</v>
       </c>
@@ -3918,8 +6601,32 @@
       <c r="H111">
         <v>0.81621392586079</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="1">
+        <v>6.01729978336631</v>
+      </c>
+      <c r="J111" s="1">
+        <v>-11.5340756835333</v>
+      </c>
+      <c r="K111" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L111" s="1">
+        <v>1.73338587406635</v>
+      </c>
+      <c r="M111" s="2">
+        <v>5.18568008767945</v>
+      </c>
+      <c r="N111" s="2">
+        <v>-11.6930259091776</v>
+      </c>
+      <c r="O111" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P111" s="2">
+        <v>1.87040027073594</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>7.14516806892499</v>
       </c>
@@ -3944,8 +6651,32 @@
       <c r="H112">
         <v>0.605707051648348</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="1">
+        <v>6.875782309376</v>
+      </c>
+      <c r="J112" s="1">
+        <v>-11.5851418419557</v>
+      </c>
+      <c r="K112" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1.85429486256786</v>
+      </c>
+      <c r="M112" s="2">
+        <v>6.04416261368914</v>
+      </c>
+      <c r="N112" s="2">
+        <v>-11.7440920676</v>
+      </c>
+      <c r="O112" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P112" s="2">
+        <v>1.92960540847515</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>7.88482418917821</v>
       </c>
@@ -3970,8 +6701,32 @@
       <c r="H113">
         <v>0.724453567285996</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="1">
+        <v>7.73378340886973</v>
+      </c>
+      <c r="J113" s="1">
+        <v>-11.7291352906523</v>
+      </c>
+      <c r="K113" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1.8500870323038</v>
+      </c>
+      <c r="M113" s="2">
+        <v>6.90216371318287</v>
+      </c>
+      <c r="N113" s="2">
+        <v>-11.8880855162966</v>
+      </c>
+      <c r="O113" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P113" s="2">
+        <v>1.95174101026581</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>7.65309246758929</v>
       </c>
@@ -3996,8 +6751,32 @@
       <c r="H114">
         <v>1.32578741570498</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="1">
+        <v>7.50205168728081</v>
+      </c>
+      <c r="J114" s="1">
+        <v>-12.5365387890405</v>
+      </c>
+      <c r="K114" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L114" s="1">
+        <v>2.07607837762732</v>
+      </c>
+      <c r="M114" s="2">
+        <v>6.67043199159395</v>
+      </c>
+      <c r="N114" s="2">
+        <v>-12.6954890146848</v>
+      </c>
+      <c r="O114" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P114" s="2">
+        <v>2.2454781832923</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>8.01500248665365</v>
       </c>
@@ -4022,8 +6801,32 @@
       <c r="H115">
         <v>1.3734729691227</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="1">
+        <v>7.86396170634517</v>
+      </c>
+      <c r="J115" s="1">
+        <v>-11.8568909845852</v>
+      </c>
+      <c r="K115" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L115" s="1">
+        <v>2.14915197148801</v>
+      </c>
+      <c r="M115" s="2">
+        <v>7.03234201065831</v>
+      </c>
+      <c r="N115" s="2">
+        <v>-12.0158412102295</v>
+      </c>
+      <c r="O115" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P115" s="2">
+        <v>2.27395866209365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>8.22034220034701</v>
       </c>
@@ -4048,8 +6851,32 @@
       <c r="H116">
         <v>1.42833572854984</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="1">
+        <v>8.06930142003853</v>
+      </c>
+      <c r="J116" s="1">
+        <v>-11.0423754218239</v>
+      </c>
+      <c r="K116" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L116" s="1">
+        <v>2.20777988444871</v>
+      </c>
+      <c r="M116" s="2">
+        <v>7.23768172435167</v>
+      </c>
+      <c r="N116" s="2">
+        <v>-11.2013256474682</v>
+      </c>
+      <c r="O116" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P116" s="2">
+        <v>2.3075101199024</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>8.49615732868105</v>
       </c>
@@ -4074,8 +6901,32 @@
       <c r="H117">
         <v>1.49077758064893</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="1">
+        <v>8.34511654837257</v>
+      </c>
+      <c r="J117" s="1">
+        <v>-10.2278043598643</v>
+      </c>
+      <c r="K117" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L117" s="1">
+        <v>2.28045924567942</v>
+      </c>
+      <c r="M117" s="2">
+        <v>7.51349685268571</v>
+      </c>
+      <c r="N117" s="2">
+        <v>-10.3867545855086</v>
+      </c>
+      <c r="O117" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P117" s="2">
+        <v>2.34667377259079</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>8.76555815170499</v>
       </c>
@@ -4100,8 +6951,32 @@
       <c r="H118">
         <v>1.58758375718492</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="1">
+        <v>8.61451737139651</v>
+      </c>
+      <c r="J118" s="1">
+        <v>-9.43217681097347</v>
+      </c>
+      <c r="K118" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L118" s="1">
+        <v>2.37411407271231</v>
+      </c>
+      <c r="M118" s="2">
+        <v>7.78289767570965</v>
+      </c>
+      <c r="N118" s="2">
+        <v>-9.59112703661776</v>
+      </c>
+      <c r="O118" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P118" s="2">
+        <v>2.40933231125915</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>9.12698535596622</v>
       </c>
@@ -4126,8 +7001,32 @@
       <c r="H119">
         <v>1.7011021304059</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="1">
+        <v>8.97594457565774</v>
+      </c>
+      <c r="J119" s="1">
+        <v>-8.62982378641388</v>
+      </c>
+      <c r="K119" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L119" s="1">
+        <v>2.49068961262616</v>
+      </c>
+      <c r="M119" s="2">
+        <v>8.14432487997088</v>
+      </c>
+      <c r="N119" s="2">
+        <v>-8.78877401205818</v>
+      </c>
+      <c r="O119" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P119" s="2">
+        <v>2.48560022088659</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>9.40151208393951</v>
       </c>
@@ -4152,8 +7051,32 @@
       <c r="H120">
         <v>1.84430495025428</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="1">
+        <v>9.25047130363104</v>
+      </c>
+      <c r="J120" s="1">
+        <v>-7.84653898787106</v>
+      </c>
+      <c r="K120" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L120" s="1">
+        <v>2.61740760460477</v>
+      </c>
+      <c r="M120" s="2">
+        <v>8.41885160794417</v>
+      </c>
+      <c r="N120" s="2">
+        <v>-8.00548921351535</v>
+      </c>
+      <c r="O120" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P120" s="2">
+        <v>2.58571474635785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>9.66942371003393</v>
       </c>
@@ -4178,8 +7101,32 @@
       <c r="H121">
         <v>2.00944785134838</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="1">
+        <v>9.51838292972545</v>
+      </c>
+      <c r="J121" s="1">
+        <v>-7.08212852182324</v>
+      </c>
+      <c r="K121" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2.76056100470076</v>
+      </c>
+      <c r="M121" s="2">
+        <v>8.68676323403859</v>
+      </c>
+      <c r="N121" s="2">
+        <v>-7.24107874746753</v>
+      </c>
+      <c r="O121" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P121" s="2">
+        <v>2.70598238488144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>9.87294343117582</v>
       </c>
@@ -4204,8 +7151,32 @@
       <c r="H122">
         <v>2.1501164691616</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="1">
+        <v>9.72190265086734</v>
+      </c>
+      <c r="J122" s="1">
+        <v>-6.277467274399</v>
+      </c>
+      <c r="K122" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L122" s="1">
+        <v>2.88189565574039</v>
+      </c>
+      <c r="M122" s="2">
+        <v>8.89028295518048</v>
+      </c>
+      <c r="N122" s="2">
+        <v>-6.4364175000433</v>
+      </c>
+      <c r="O122" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P122" s="2">
+        <v>2.81202077356479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>10.0813672419838</v>
       </c>
@@ -4230,8 +7201,32 @@
       <c r="H123">
         <v>2.28445228203149</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="1">
+        <v>9.93032646167529</v>
+      </c>
+      <c r="J123" s="1">
+        <v>-5.45341659932599</v>
+      </c>
+      <c r="K123" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L123" s="1">
+        <v>3.00095063681026</v>
+      </c>
+      <c r="M123" s="2">
+        <v>9.09870676598843</v>
+      </c>
+      <c r="N123" s="2">
+        <v>-5.61236682497028</v>
+      </c>
+      <c r="O123" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P123" s="2">
+        <v>2.91602164410329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>10.3676088891451</v>
       </c>
@@ -4256,8 +7251,32 @@
       <c r="H124">
         <v>2.46309095790007</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="1">
+        <v>10.2165681088367</v>
+      </c>
+      <c r="J124" s="1">
+        <v>-4.67433655245637</v>
+      </c>
+      <c r="K124" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L124" s="1">
+        <v>3.16226317397182</v>
+      </c>
+      <c r="M124" s="2">
+        <v>9.38494841314978</v>
+      </c>
+      <c r="N124" s="2">
+        <v>-4.83328677810067</v>
+      </c>
+      <c r="O124" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P124" s="2">
+        <v>3.05798578592006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>10.7191844627924</v>
       </c>
@@ -4282,8 +7301,32 @@
       <c r="H125">
         <v>2.68355045615839</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="1">
+        <v>10.5681436824839</v>
+      </c>
+      <c r="J125" s="1">
+        <v>-3.9335298192158</v>
+      </c>
+      <c r="K125" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L125" s="1">
+        <v>3.3638345340571</v>
+      </c>
+      <c r="M125" s="2">
+        <v>9.73652398679708</v>
+      </c>
+      <c r="N125" s="2">
+        <v>-4.09248004486009</v>
+      </c>
+      <c r="O125" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P125" s="2">
+        <v>3.23819441212968</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>10.7246537945655</v>
       </c>
@@ -4308,8 +7351,32 @@
       <c r="H126">
         <v>2.58760567221063</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="1">
+        <v>10.573613014257</v>
+      </c>
+      <c r="J126" s="1">
+        <v>-3.13354851542804</v>
+      </c>
+      <c r="K126" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L126" s="1">
+        <v>3.39164223625001</v>
+      </c>
+      <c r="M126" s="2">
+        <v>9.74199331857013</v>
+      </c>
+      <c r="N126" s="2">
+        <v>-3.29249874107234</v>
+      </c>
+      <c r="O126" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P126" s="2">
+        <v>3.15913961623361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>10.0298401606109</v>
       </c>
@@ -4334,8 +7401,32 @@
       <c r="H127">
         <v>2.49455646061376</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="1">
+        <v>9.87879938030238</v>
+      </c>
+      <c r="J127" s="1">
+        <v>-2.62676057745912</v>
+      </c>
+      <c r="K127" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L127" s="1">
+        <v>3.35724292761395</v>
+      </c>
+      <c r="M127" s="2">
+        <v>9.04717968461552</v>
+      </c>
+      <c r="N127" s="2">
+        <v>-2.78571080310342</v>
+      </c>
+      <c r="O127" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P127" s="2">
+        <v>3.08338643948335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>9.21121241178195</v>
       </c>
@@ -4360,8 +7451,32 @@
       <c r="H128">
         <v>2.46435883907863</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="1">
+        <v>9.06017163147347</v>
+      </c>
+      <c r="J128" s="1">
+        <v>-2.33222940958837</v>
+      </c>
+      <c r="K128" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L128" s="1">
+        <v>3.35613461746538</v>
+      </c>
+      <c r="M128" s="2">
+        <v>8.22855193578661</v>
+      </c>
+      <c r="N128" s="2">
+        <v>-2.49117963523267</v>
+      </c>
+      <c r="O128" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P128" s="2">
+        <v>3.05900710815536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>8.41140369166175</v>
       </c>
@@ -4386,8 +7501,32 @@
       <c r="H129">
         <v>2.46303008351916</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="1">
+        <v>8.26036291135327</v>
+      </c>
+      <c r="J129" s="1">
+        <v>-2.04446907316292</v>
+      </c>
+      <c r="K129" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L129" s="1">
+        <v>3.3778532433958</v>
+      </c>
+      <c r="M129" s="2">
+        <v>7.42874321566641</v>
+      </c>
+      <c r="N129" s="2">
+        <v>-2.20341929880722</v>
+      </c>
+      <c r="O129" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P129" s="2">
+        <v>3.05793675414002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>7.58331426258916</v>
       </c>
@@ -4412,8 +7551,32 @@
       <c r="H130">
         <v>2.48047059471928</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="1">
+        <v>7.43227348228068</v>
+      </c>
+      <c r="J130" s="1">
+        <v>-1.81237448585371</v>
+      </c>
+      <c r="K130" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L130" s="1">
+        <v>3.40963426477573</v>
+      </c>
+      <c r="M130" s="2">
+        <v>6.60065378659382</v>
+      </c>
+      <c r="N130" s="2">
+        <v>-1.97132471149801</v>
+      </c>
+      <c r="O130" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P130" s="2">
+        <v>3.07200168803128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>6.73596693981721</v>
       </c>
@@ -4438,8 +7601,32 @@
       <c r="H131">
         <v>2.49801732024153</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="1">
+        <v>6.58492615950873</v>
+      </c>
+      <c r="J131" s="1">
+        <v>-1.57488235000243</v>
+      </c>
+      <c r="K131" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L131" s="1">
+        <v>3.43970127040398</v>
+      </c>
+      <c r="M131" s="2">
+        <v>5.75330646382186</v>
+      </c>
+      <c r="N131" s="2">
+        <v>-1.73383257564673</v>
+      </c>
+      <c r="O131" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P131" s="2">
+        <v>3.08618705399181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>5.9175064575943</v>
       </c>
@@ -4464,8 +7651,32 @@
       <c r="H132">
         <v>2.54462559795615</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="1">
+        <v>5.76646567728582</v>
+      </c>
+      <c r="J132" s="1">
+        <v>-1.34548653696426</v>
+      </c>
+      <c r="K132" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L132" s="1">
+        <v>3.49306834553842</v>
+      </c>
+      <c r="M132" s="2">
+        <v>4.93484598159896</v>
+      </c>
+      <c r="N132" s="2">
+        <v>-1.50443676260856</v>
+      </c>
+      <c r="O132" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P132" s="2">
+        <v>3.12403255965326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>5.10867492222107</v>
       </c>
@@ -4489,6 +7700,30 @@
       </c>
       <c r="H133">
         <v>2.60822104976639</v>
+      </c>
+      <c r="I133" s="1">
+        <v>4.95763414191259</v>
+      </c>
+      <c r="J133" s="1">
+        <v>-1.11878949819713</v>
+      </c>
+      <c r="K133" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L133" s="1">
+        <v>3.55944285548737</v>
+      </c>
+      <c r="M133" s="2">
+        <v>4.12601444622573</v>
+      </c>
+      <c r="N133" s="2">
+        <v>-1.27773972384143</v>
+      </c>
+      <c r="O133" s="2">
+        <v>-3.06</v>
+      </c>
+      <c r="P133" s="2">
+        <v>3.17604739329319</v>
       </c>
     </row>
   </sheetData>
